--- a/examples/seating_plan/spreadsheets/example-classroom_seating_plan.xlsx
+++ b/examples/seating_plan/spreadsheets/example-classroom_seating_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\seating_plan\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756256BF-6E75-4A10-990B-07539B01833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D25AF3-3D54-4A83-BE9F-943337DACE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
@@ -2125,7 +2125,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
